--- a/data/trans_dic/P55_8-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_8-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de un televisor</t>
+          <t>Población que no puede permitirse disponer de un televisor (tasa de respuesta: 99,47%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>95,93%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>96,21%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>98,51%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>94,44%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>98,49%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>97,74%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>95,83%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>98,82%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>96,1%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>98,77%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>96,84%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>96,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>95,22%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,48; 100,0</t>
+          <t>95,18; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,36; 100,0</t>
+          <t>89,69; 98,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,71; 99,55</t>
+          <t>86,78; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,91; 98,47</t>
+          <t>87,82; 98,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,98; 99,71</t>
+          <t>95,5; 99,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,98; 98,36</t>
+          <t>93,27; 99,51</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>91,28; 98,39</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>91,74; 98,53</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>97,18; 99,69</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>93,46; 98,68</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>89,69; 98,33</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>91,45; 97,73</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>98,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>95,73%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>95,72%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>97,73%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>97,3%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>99,49%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>97,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>96,45%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>98,1%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>99,76%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>96,49%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>96,08%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,19; 99,56</t>
+          <t>95,54; 99,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,53; 98,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>94,01; 99,35</t>
+          <t>89,4; 98,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,72; 98,95</t>
+          <t>90,22; 98,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,21; 99,17</t>
+          <t>94,29; 99,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,75; 98,19</t>
+          <t>97,4; 100,0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>94,17; 98,97</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>92,48; 98,76</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>96,02; 99,11</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>98,78; 100,0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>93,28; 98,33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>93,07; 98,05</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>99,03%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>98,91%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>96,56%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>98,93%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>98,65%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>94,29%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>98,64%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>97,45%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>98,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>99,3%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>96,79%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>96,98%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>94,33; 99,69</t>
+          <t>93,35; 99,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,45; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,96; 99,54</t>
+          <t>96,42; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90,39; 96,83</t>
+          <t>92,86; 98,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,77; 99,48</t>
+          <t>97,29; 99,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,57; 98,09</t>
+          <t>96,75; 99,51</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>90,22; 96,82</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>94,45; 99,05</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>96,36; 99,39</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>98,18; 99,74</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>94,66; 98,08</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>94,85; 98,4</t>
         </is>
       </c>
     </row>
@@ -846,27 +1082,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>97,02%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>97,46%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>98,42%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>98,31%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>98,68%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>97,12%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>98,71%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>97,43%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>98,67%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>97,07%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>99,38; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,93; 100,0</t>
+          <t>85,52; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,86; 98,95</t>
+          <t>96,54; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,13; 99,57</t>
+          <t>93,52; 98,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,44; 99,46</t>
+          <t>95,07; 98,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,25; 99,53</t>
+          <t>96,06; 99,44</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>95,8; 99,58</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>94,3; 98,79</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>97,43; 99,42</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>92,03; 99,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>97,17; 99,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>95,0; 98,39</t>
         </is>
       </c>
     </row>
@@ -926,27 +1222,57 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>99,24%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>93,9%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>99,67%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>98,89%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>99,66%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>98,96%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>98,62%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>97,2%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>99,38%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>96,37%</t>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>99,1%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>96,38%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>98,02%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,3; 99,74</t>
+          <t>97,17; 99,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,66; 96,83</t>
+          <t>96,15; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>98,33; 100,0</t>
+          <t>89,17; 96,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>96,28; 99,55</t>
+          <t>96,57; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>98,54; 99,83</t>
+          <t>98,41; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>94,01; 98,0</t>
+          <t>95,98; 100,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>96,31; 99,55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>94,0; 99,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>98,39; 99,84</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>97,4; 99,74</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>94,04; 98,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>96,39; 99,05</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1362,57 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>99,27%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>96,81%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>98,12%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>98,71%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>98,02%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>95,92%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>99,09%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>98,94%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>98,49%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>98,88%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>97,4%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>98,13%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>98,58%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>98,99; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,41; 98,84</t>
+          <t>95,91; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>95,49; 99,61</t>
+          <t>92,37; 98,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>95,46; 100,0</t>
+          <t>95,88; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,32; 99,75</t>
+          <t>94,95; 99,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,56; 99,25</t>
+          <t>83,17; 100,0</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>95,49; 100,0</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>95,73; 99,57</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>97,07; 99,77</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>90,61; 99,67</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>95,91; 99,25</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>96,77; 99,53</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>98,54%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>96,99%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>98,36%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>96,89%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>98,33%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>98,1%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>97,34%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>98,74%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>97,25%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>98,72%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>98,31%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>97,17%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>97,07%</t>
         </is>
       </c>
     </row>
@@ -1119,49 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,29; 99,59</t>
+          <t>98,23; 99,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>95,29; 98,05</t>
+          <t>96,45; 99,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>97,52; 98,97</t>
+          <t>95,17; 98,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>96,36; 98,27</t>
+          <t>95,35; 97,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,2; 99,14</t>
+          <t>97,46; 98,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,21; 97,87</t>
+          <t>95,1; 99,04</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>96,27; 98,19</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>96,16; 98,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>98,21; 99,15</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>96,76; 99,01</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>96,15; 97,83</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>96,18; 97,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de un televisor (tasa de respuesta: 99,47%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>493801</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>443037</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>40104</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>40555</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>490456</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>460311</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35838</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36311</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>984256</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>903348</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>75942</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>76866</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>474471; 498505</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>414238; 456164</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>36175; 41685</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>37710; 42164</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>475548; 495859</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>439259; 468680</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34138; 36796</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34663; 37228</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>968352; 993359</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>871828; 920497</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70929; 77760</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>73826; 78892</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>405.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>575194</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>576707</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>47344</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>45119</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>496453</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>502526</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45021</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>44062</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1071646</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1079233</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>92365</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>89181</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>557532; 581184</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44213; 48686</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42527; 46425</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>479815; 505669</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>491966; 505103</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>43576; 45798</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>42246; 45115</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1048937; 1082742</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1068650; 1081810</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>89297; 94131</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>86393; 91010</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>641.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>516.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>649027</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>662282</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>59139</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>58381</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>698511</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>701295</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50135</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>53453</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1347539</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1363577</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>109274</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>111833</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>617449; 658860</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>57585; 59721</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>56147; 59744</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>686917; 704175</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>687785; 707370</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>47973; 51479</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>51811; 54331</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1317800; 1359127</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1348226; 1369650</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>106864; 110721</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>109373; 113468</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>675.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>552.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>403.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>634093</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>629966</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>57311</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>55264</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>635367</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>644844</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50407</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>51971</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1269460</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1274811</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>107717</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>107235</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>558581; 653150</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55891; 57893</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>53268; 56351</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>619785; 644255</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>629400; 651556</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>49123; 51057</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>50459; 52866</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1252973; 1278600</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1204044; 1297658</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>106080; 108579</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>104952; 108698</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>512.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>485677</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>491261</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>41287</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>43904</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>505893</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>505588</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>47670</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45533</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>991570</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>996849</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>88957</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>89436</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>476248; 488741</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>475980; 495036</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>39206; 42580</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>42876; 44399</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>499529; 507595</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>490361; 510905</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>46554; 48119</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>44035; 46399</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>981700; 996110</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>979748; 1003340</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>86802; 90474</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>87947; 90376</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>532390</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>562250</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>44210</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>44965</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>678923</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>689487</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>62538</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1211313</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1251737</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>106748</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>107212</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>543261; 566402</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>42181; 45134</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>43676; 45554</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>657677; 687701</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>597842; 718783</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>60264; 63113</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>60502; 62926</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1189168; 1222199</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1164509; 1280988</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>104331; 107966</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>105237; 108242</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1316.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1023.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>883.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>881.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1625.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1246.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1051.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1077.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2941.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2269.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1934.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1958.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3370180</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3365502</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>289394</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>288189</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3505603</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3504052</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>291610</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>293576</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6875783</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>6869554</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>581004</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>581766</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3339822; 3386257</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3294152; 3393566</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>283986; 292861</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>283623; 291157</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3474482; 3526812</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3396796; 3537538</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>288388; 294141</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>290273; 296163</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6840448; 6905913</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6761084; 6918353</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>574948; 585007</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>576413; 585785</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>